--- a/AssignmentWeek2/odd_retail_sales_2018_05.xlsx
+++ b/AssignmentWeek2/odd_retail_sales_2018_05.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ODD RAPORLAR\Aylık Raporlar\Mayıs 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emrek\Google Drive\BDA\503-EssentialsOfDataAnalytics\GitHub\pj18-EmreKemerci\AssignmentWeek2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F209B523-7F60-4D3F-B171-D4A3690B87CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22080" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAYIS2018" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MAYIS2018!$A$4:$J$58</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -348,30 +349,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,6 +380,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,7 +446,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -455,7 +456,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69931205-3B24-4E7B-9DEB-D4F81CB0B673}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -495,7 +496,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -505,7 +506,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9DA55E7-145A-4410-909C-2F61AB7662F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -550,7 +551,7 @@
         <xdr:cNvPr id="4" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D8EA02-5F74-49E9-A6DD-3E2EDA0D58FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -619,7 +620,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -914,1643 +915,1643 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sayfa31">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:J58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="256" width="9.140625" style="2"/>
-    <col min="257" max="257" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="258" max="512" width="9.140625" style="2"/>
-    <col min="513" max="513" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="514" max="768" width="9.140625" style="2"/>
-    <col min="769" max="769" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="770" max="1024" width="9.140625" style="2"/>
-    <col min="1025" max="1025" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1280" width="9.140625" style="2"/>
-    <col min="1281" max="1281" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1536" width="9.140625" style="2"/>
-    <col min="1537" max="1537" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1792" width="9.140625" style="2"/>
-    <col min="1793" max="1793" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="1794" max="2048" width="9.140625" style="2"/>
-    <col min="2049" max="2049" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2304" width="9.140625" style="2"/>
-    <col min="2305" max="2305" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2560" width="9.140625" style="2"/>
-    <col min="2561" max="2561" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2816" width="9.140625" style="2"/>
-    <col min="2817" max="2817" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2818" max="3072" width="9.140625" style="2"/>
-    <col min="3073" max="3073" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3328" width="9.140625" style="2"/>
-    <col min="3329" max="3329" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3584" width="9.140625" style="2"/>
-    <col min="3585" max="3585" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3840" width="9.140625" style="2"/>
-    <col min="3841" max="3841" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3842" max="4096" width="9.140625" style="2"/>
-    <col min="4097" max="4097" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4352" width="9.140625" style="2"/>
-    <col min="4353" max="4353" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4608" width="9.140625" style="2"/>
-    <col min="4609" max="4609" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4864" width="9.140625" style="2"/>
-    <col min="4865" max="4865" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4866" max="5120" width="9.140625" style="2"/>
-    <col min="5121" max="5121" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5376" width="9.140625" style="2"/>
-    <col min="5377" max="5377" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5632" width="9.140625" style="2"/>
-    <col min="5633" max="5633" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5888" width="9.140625" style="2"/>
-    <col min="5889" max="5889" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5890" max="6144" width="9.140625" style="2"/>
-    <col min="6145" max="6145" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6400" width="9.140625" style="2"/>
-    <col min="6401" max="6401" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6656" width="9.140625" style="2"/>
-    <col min="6657" max="6657" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6912" width="9.140625" style="2"/>
-    <col min="6913" max="6913" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6914" max="7168" width="9.140625" style="2"/>
-    <col min="7169" max="7169" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7424" width="9.140625" style="2"/>
-    <col min="7425" max="7425" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7680" width="9.140625" style="2"/>
-    <col min="7681" max="7681" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7936" width="9.140625" style="2"/>
-    <col min="7937" max="7937" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7938" max="8192" width="9.140625" style="2"/>
-    <col min="8193" max="8193" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8448" width="9.140625" style="2"/>
-    <col min="8449" max="8449" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8704" width="9.140625" style="2"/>
-    <col min="8705" max="8705" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8960" width="9.140625" style="2"/>
-    <col min="8961" max="8961" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8962" max="9216" width="9.140625" style="2"/>
-    <col min="9217" max="9217" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9472" width="9.140625" style="2"/>
-    <col min="9473" max="9473" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9728" width="9.140625" style="2"/>
-    <col min="9729" max="9729" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9984" width="9.140625" style="2"/>
-    <col min="9985" max="9985" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9986" max="10240" width="9.140625" style="2"/>
-    <col min="10241" max="10241" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10496" width="9.140625" style="2"/>
-    <col min="10497" max="10497" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10752" width="9.140625" style="2"/>
-    <col min="10753" max="10753" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10754" max="11008" width="9.140625" style="2"/>
-    <col min="11009" max="11009" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11264" width="9.140625" style="2"/>
-    <col min="11265" max="11265" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11520" width="9.140625" style="2"/>
-    <col min="11521" max="11521" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11776" width="9.140625" style="2"/>
-    <col min="11777" max="11777" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11778" max="12032" width="9.140625" style="2"/>
-    <col min="12033" max="12033" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12288" width="9.140625" style="2"/>
-    <col min="12289" max="12289" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12544" width="9.140625" style="2"/>
-    <col min="12545" max="12545" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12800" width="9.140625" style="2"/>
-    <col min="12801" max="12801" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12802" max="13056" width="9.140625" style="2"/>
-    <col min="13057" max="13057" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13312" width="9.140625" style="2"/>
-    <col min="13313" max="13313" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13568" width="9.140625" style="2"/>
-    <col min="13569" max="13569" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13824" width="9.140625" style="2"/>
-    <col min="13825" max="13825" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13826" max="14080" width="9.140625" style="2"/>
-    <col min="14081" max="14081" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14336" width="9.140625" style="2"/>
-    <col min="14337" max="14337" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14592" width="9.140625" style="2"/>
-    <col min="14593" max="14593" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14848" width="9.140625" style="2"/>
-    <col min="14849" max="14849" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14850" max="15104" width="9.140625" style="2"/>
-    <col min="15105" max="15105" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15360" width="9.140625" style="2"/>
-    <col min="15361" max="15361" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15616" width="9.140625" style="2"/>
-    <col min="15617" max="15617" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15872" width="9.140625" style="2"/>
-    <col min="15873" max="15873" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15874" max="16128" width="9.140625" style="2"/>
-    <col min="16129" max="16129" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="256" width="9.109375" style="2"/>
+    <col min="257" max="257" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="258" max="512" width="9.109375" style="2"/>
+    <col min="513" max="513" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="514" max="768" width="9.109375" style="2"/>
+    <col min="769" max="769" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="770" max="1024" width="9.109375" style="2"/>
+    <col min="1025" max="1025" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1280" width="9.109375" style="2"/>
+    <col min="1281" max="1281" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1536" width="9.109375" style="2"/>
+    <col min="1537" max="1537" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1792" width="9.109375" style="2"/>
+    <col min="1793" max="1793" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1794" max="2048" width="9.109375" style="2"/>
+    <col min="2049" max="2049" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2304" width="9.109375" style="2"/>
+    <col min="2305" max="2305" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2560" width="9.109375" style="2"/>
+    <col min="2561" max="2561" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2816" width="9.109375" style="2"/>
+    <col min="2817" max="2817" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2818" max="3072" width="9.109375" style="2"/>
+    <col min="3073" max="3073" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3328" width="9.109375" style="2"/>
+    <col min="3329" max="3329" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3584" width="9.109375" style="2"/>
+    <col min="3585" max="3585" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3840" width="9.109375" style="2"/>
+    <col min="3841" max="3841" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3842" max="4096" width="9.109375" style="2"/>
+    <col min="4097" max="4097" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4352" width="9.109375" style="2"/>
+    <col min="4353" max="4353" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4608" width="9.109375" style="2"/>
+    <col min="4609" max="4609" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4864" width="9.109375" style="2"/>
+    <col min="4865" max="4865" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4866" max="5120" width="9.109375" style="2"/>
+    <col min="5121" max="5121" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5376" width="9.109375" style="2"/>
+    <col min="5377" max="5377" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5632" width="9.109375" style="2"/>
+    <col min="5633" max="5633" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5888" width="9.109375" style="2"/>
+    <col min="5889" max="5889" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5890" max="6144" width="9.109375" style="2"/>
+    <col min="6145" max="6145" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6400" width="9.109375" style="2"/>
+    <col min="6401" max="6401" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6656" width="9.109375" style="2"/>
+    <col min="6657" max="6657" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6912" width="9.109375" style="2"/>
+    <col min="6913" max="6913" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6914" max="7168" width="9.109375" style="2"/>
+    <col min="7169" max="7169" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7424" width="9.109375" style="2"/>
+    <col min="7425" max="7425" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7680" width="9.109375" style="2"/>
+    <col min="7681" max="7681" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7936" width="9.109375" style="2"/>
+    <col min="7937" max="7937" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7938" max="8192" width="9.109375" style="2"/>
+    <col min="8193" max="8193" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8448" width="9.109375" style="2"/>
+    <col min="8449" max="8449" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8704" width="9.109375" style="2"/>
+    <col min="8705" max="8705" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8960" width="9.109375" style="2"/>
+    <col min="8961" max="8961" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8962" max="9216" width="9.109375" style="2"/>
+    <col min="9217" max="9217" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9472" width="9.109375" style="2"/>
+    <col min="9473" max="9473" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9728" width="9.109375" style="2"/>
+    <col min="9729" max="9729" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9984" width="9.109375" style="2"/>
+    <col min="9985" max="9985" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9986" max="10240" width="9.109375" style="2"/>
+    <col min="10241" max="10241" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10496" width="9.109375" style="2"/>
+    <col min="10497" max="10497" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10752" width="9.109375" style="2"/>
+    <col min="10753" max="10753" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10754" max="11008" width="9.109375" style="2"/>
+    <col min="11009" max="11009" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11264" width="9.109375" style="2"/>
+    <col min="11265" max="11265" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11520" width="9.109375" style="2"/>
+    <col min="11521" max="11521" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11776" width="9.109375" style="2"/>
+    <col min="11777" max="11777" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11778" max="12032" width="9.109375" style="2"/>
+    <col min="12033" max="12033" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12288" width="9.109375" style="2"/>
+    <col min="12289" max="12289" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12544" width="9.109375" style="2"/>
+    <col min="12545" max="12545" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12800" width="9.109375" style="2"/>
+    <col min="12801" max="12801" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12802" max="13056" width="9.109375" style="2"/>
+    <col min="13057" max="13057" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13312" width="9.109375" style="2"/>
+    <col min="13313" max="13313" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13568" width="9.109375" style="2"/>
+    <col min="13569" max="13569" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13824" width="9.109375" style="2"/>
+    <col min="13825" max="13825" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13826" max="14080" width="9.109375" style="2"/>
+    <col min="14081" max="14081" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14336" width="9.109375" style="2"/>
+    <col min="14337" max="14337" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14592" width="9.109375" style="2"/>
+    <col min="14593" max="14593" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14848" width="9.109375" style="2"/>
+    <col min="14849" max="14849" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14850" max="15104" width="9.109375" style="2"/>
+    <col min="15105" max="15105" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15360" width="9.109375" style="2"/>
+    <col min="15361" max="15361" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15616" width="9.109375" style="2"/>
+    <col min="15617" max="15617" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15872" width="9.109375" style="2"/>
+    <col min="15873" max="15873" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15874" max="16128" width="9.109375" style="2"/>
+    <col min="16129" max="16129" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="4" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="7" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+    <row r="7" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8">
         <v>25</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="8">
         <f>B8+C8</f>
         <v>25</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8">
         <f>E8+F8</f>
         <v>0</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="8">
         <f t="shared" ref="H8:I21" si="0">B8+E8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="8">
         <f>H8+I8</f>
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="8">
         <f>B9+C9</f>
         <v>1</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8">
         <f>E9+F9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="8">
         <f>H9+I9</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8">
         <v>1630</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="8">
         <f>B10+C10</f>
         <v>1630</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8">
         <f>E10+F10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="8">
         <f t="shared" si="0"/>
         <v>1630</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="8">
         <f>H10+I10</f>
         <v>1630</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8">
         <v>1</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="8">
         <f t="shared" ref="D11:D49" si="1">B11+C11</f>
         <v>1</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
         <f t="shared" ref="G11:G49" si="2">E11+F11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="8">
         <f t="shared" ref="J11:J49" si="3">H11+I11</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8">
         <v>1910</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="8">
         <f t="shared" si="1"/>
         <v>1910</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="16">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="8">
         <f t="shared" si="0"/>
         <v>1910</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="8">
         <f t="shared" si="3"/>
         <v>1910</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8">
         <v>980</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="8">
         <f t="shared" si="1"/>
         <v>980</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
         <v>634</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="8">
         <f t="shared" si="2"/>
         <v>634</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="8">
         <f t="shared" si="0"/>
         <v>1614</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="8">
         <f t="shared" si="3"/>
         <v>1614</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8">
         <v>3193</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="8">
         <f t="shared" si="1"/>
         <v>3193</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
         <v>328</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="8">
         <f t="shared" si="2"/>
         <v>328</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="8">
         <f t="shared" si="0"/>
         <v>3521</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="8">
         <f t="shared" si="3"/>
         <v>3521</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8">
         <v>9</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8">
         <f>E15+F15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="8">
         <f>H15+I15</f>
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8">
         <v>1</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
         <f>E16+F16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="8">
         <f>H16+I16</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="8">
         <v>5309</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="8">
         <v>178</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="8">
         <f t="shared" si="1"/>
         <v>5487</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="8">
         <v>2731</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="8">
         <v>362</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="8">
         <f t="shared" si="2"/>
         <v>3093</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="8">
         <f t="shared" si="0"/>
         <v>8040</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="8">
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="8">
         <f t="shared" si="3"/>
         <v>8580</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="8">
         <v>401</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="8">
         <v>2803</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="8">
         <f t="shared" si="1"/>
         <v>3204</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="8">
         <v>5136</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="8">
         <v>216</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="8">
         <f t="shared" si="2"/>
         <v>5352</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="8">
         <f t="shared" si="0"/>
         <v>5537</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="8">
         <f t="shared" si="0"/>
         <v>3019</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="8">
         <f t="shared" si="3"/>
         <v>8556</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="8">
         <v>2132</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="8">
         <v>588</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="8">
         <f t="shared" si="1"/>
         <v>2720</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="16">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
         <f t="shared" si="0"/>
         <v>2132</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="8">
         <f t="shared" si="0"/>
         <v>588</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="8">
         <f t="shared" si="3"/>
         <v>2720</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="8">
         <v>2142</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="8">
         <v>2463</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="8">
         <f t="shared" si="1"/>
         <v>4605</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8">
         <v>199</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="8">
         <f t="shared" si="2"/>
         <v>199</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="8">
         <f t="shared" si="0"/>
         <v>2142</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="8">
         <f t="shared" si="0"/>
         <v>2662</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="8">
         <f t="shared" si="3"/>
         <v>4804</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8">
         <v>2</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="16">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
         <v>265</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="8">
         <v>33</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="8">
         <f t="shared" si="2"/>
         <v>298</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="8">
         <f>B22+E22</f>
         <v>265</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="8">
         <f>C22+F22</f>
         <v>33</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="8">
         <f>H22+I22</f>
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8">
         <v>133</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="8">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="8">
         <f t="shared" ref="H23:I49" si="4">B23+E23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="8">
         <f t="shared" si="4"/>
         <v>133</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="8">
         <f t="shared" si="3"/>
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8">
         <v>12</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="16">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
         <f>B24+E24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="8">
         <f>C24+F24</f>
         <v>12</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="8">
         <f>H24+I24</f>
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8">
         <v>185</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="8">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="16">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
         <f t="shared" si="4"/>
         <v>185</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="8">
         <f t="shared" si="3"/>
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="16">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
         <v>76</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="8">
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="I26" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="16">
+      <c r="I26" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="8">
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8">
         <v>742</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="8">
         <f t="shared" si="1"/>
         <v>742</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8">
         <v>221</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="8">
         <f t="shared" si="2"/>
         <v>221</v>
       </c>
-      <c r="H27" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="16">
+      <c r="H27" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
         <f t="shared" si="4"/>
         <v>963</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="8">
         <f t="shared" si="3"/>
         <v>963</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8">
         <v>1</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="16">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8">
         <v>112</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="8">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="16">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="8">
         <f t="shared" si="4"/>
         <v>112</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="8">
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8">
         <v>7</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="16">
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="8">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8">
         <v>4</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="8">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="16">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="8">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8">
         <v>129</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="8">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="16">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
         <f t="shared" si="4"/>
         <v>129</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="8">
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8">
         <v>2153</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="8">
         <f t="shared" si="1"/>
         <v>2153</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16">
+      <c r="E33" s="8"/>
+      <c r="F33" s="8">
         <v>1204</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="8">
         <f t="shared" si="2"/>
         <v>1204</v>
       </c>
-      <c r="H33" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="16">
+      <c r="H33" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="8">
         <f t="shared" si="4"/>
         <v>3357</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="8">
         <f t="shared" si="3"/>
         <v>3357</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8">
         <v>146</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="8">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="16">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="8">
         <f t="shared" si="4"/>
         <v>146</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="8">
         <f t="shared" si="3"/>
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8">
         <v>57</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="8">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="8">
         <v>22</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="8">
         <v>184</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="8">
         <f t="shared" si="2"/>
         <v>206</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="8">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="8">
         <f t="shared" si="4"/>
         <v>241</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="8">
         <f t="shared" si="3"/>
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8">
         <v>2508</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="8">
         <f t="shared" si="1"/>
         <v>2508</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16">
+      <c r="E36" s="8"/>
+      <c r="F36" s="8">
         <v>116</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="8">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="H36" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="16">
+      <c r="H36" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
         <f t="shared" si="4"/>
         <v>2624</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="8">
         <f t="shared" si="3"/>
         <v>2624</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8">
         <v>1416</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="8">
         <f t="shared" si="1"/>
         <v>1416</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="16">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
         <f t="shared" si="4"/>
         <v>1416</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J37" s="8">
         <f t="shared" si="3"/>
         <v>1416</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8">
         <v>3819</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="8">
         <f t="shared" si="1"/>
         <v>3819</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8">
         <v>404</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="8">
         <f t="shared" si="2"/>
         <v>404</v>
       </c>
-      <c r="H38" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="16">
+      <c r="H38" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="8">
         <f t="shared" si="4"/>
         <v>4223</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J38" s="8">
         <f t="shared" si="3"/>
         <v>4223</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8">
         <v>54</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="8">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="16">
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="8">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="8">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="8">
         <v>6586</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="8">
         <v>2694</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="8">
         <f t="shared" si="1"/>
         <v>9280</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16">
+      <c r="E40" s="8"/>
+      <c r="F40" s="8">
         <v>969</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="8">
         <f t="shared" si="2"/>
         <v>969</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="8">
         <f t="shared" si="4"/>
         <v>6586</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="8">
         <f t="shared" si="4"/>
         <v>3663</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J40" s="8">
         <f t="shared" si="3"/>
         <v>10249</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8">
         <v>1154</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="8">
         <f t="shared" si="1"/>
         <v>1154</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="16">
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
         <f t="shared" si="4"/>
         <v>1154</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J41" s="8">
         <f t="shared" si="3"/>
         <v>1154</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8">
         <v>1820</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="8">
         <f t="shared" si="1"/>
         <v>1820</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="16">
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="8">
         <f t="shared" si="4"/>
         <v>1820</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J42" s="8">
         <f t="shared" si="3"/>
         <v>1820</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8">
         <v>3</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="16">
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="8">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J43" s="8">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8">
         <v>19</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="8">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16">
+      <c r="E44" s="8"/>
+      <c r="F44" s="8">
         <v>12</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="8">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H44" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="16">
+      <c r="H44" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="8">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J44" s="8">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8">
         <v>144</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="8">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="16">
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="8">
         <f t="shared" si="4"/>
         <v>144</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J45" s="8">
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8">
         <v>383</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="8">
         <f t="shared" si="1"/>
         <v>383</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="16">
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="8">
         <f t="shared" si="4"/>
         <v>383</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J46" s="8">
         <f t="shared" si="3"/>
         <v>383</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="8">
         <v>2438</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="8">
         <v>370</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="8">
         <f t="shared" si="1"/>
         <v>2808</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16">
+      <c r="E47" s="8"/>
+      <c r="F47" s="8">
         <v>352</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="8">
         <f t="shared" si="2"/>
         <v>352</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="8">
         <f t="shared" si="4"/>
         <v>2438</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="8">
         <f t="shared" si="4"/>
         <v>722</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J47" s="8">
         <f t="shared" si="3"/>
         <v>3160</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8">
         <v>5913</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="8">
         <f t="shared" si="1"/>
         <v>5913</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16">
+      <c r="E48" s="8"/>
+      <c r="F48" s="8">
         <v>1931</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="8">
         <f t="shared" si="2"/>
         <v>1931</v>
       </c>
-      <c r="H48" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="16">
+      <c r="H48" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="8">
         <f t="shared" si="4"/>
         <v>7844</v>
       </c>
-      <c r="J48" s="16">
+      <c r="J48" s="8">
         <f t="shared" si="3"/>
         <v>7844</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8">
         <v>590</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="8">
         <f t="shared" si="1"/>
         <v>590</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="16">
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="8">
         <f t="shared" si="4"/>
         <v>590</v>
       </c>
-      <c r="J49" s="16">
+      <c r="J49" s="8">
         <f t="shared" si="3"/>
         <v>590</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="19"/>
-    </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="s">
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B51" s="13">
         <f t="shared" ref="B51:J51" si="5">SUM(B8:B49)</f>
         <v>19008</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="13">
         <f t="shared" si="5"/>
         <v>38219</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="13">
         <f t="shared" si="5"/>
         <v>57227</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="13">
         <f t="shared" si="5"/>
         <v>8230</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="13">
         <f t="shared" si="5"/>
         <v>7298</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="13">
         <f t="shared" si="5"/>
         <v>15528</v>
       </c>
-      <c r="H51" s="21">
+      <c r="H51" s="13">
         <f t="shared" si="5"/>
         <v>27238</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I51" s="13">
         <f t="shared" si="5"/>
         <v>45517</v>
       </c>
-      <c r="J51" s="21">
+      <c r="J51" s="13">
         <f t="shared" si="5"/>
         <v>72755</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A4:J4"/>
@@ -2568,7 +2569,32 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="Control 2">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId6" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -2581,39 +2607,14 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>914400</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="Control 1"/>
+        <control shapeId="1026" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
